--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_006.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_006.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="143">
   <si>
     <t>Sezione</t>
   </si>
@@ -336,6 +336,30 @@
   </si>
   <si>
     <t>flagFirmatario</t>
+  </si>
+  <si>
+    <t>Provincia AIRE</t>
+  </si>
+  <si>
+    <t>idProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Provincia AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE</t>
+  </si>
+  <si>
+    <t>idComuneAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneAIRE</t>
   </si>
   <si>
     <t>Generalità Sposa</t>
@@ -475,7 +499,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H107"/>
+  <dimension ref="A1:H115"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1642,19 +1666,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B51" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B51" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="C51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E51" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>64</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1665,19 +1689,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>108</v>
+        <v>61</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>65</v>
+        <v>110</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>109</v>
+        <v>63</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>66</v>
+        <v>111</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1688,19 +1712,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>108</v>
+        <v>61</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>67</v>
+        <v>112</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>109</v>
+        <v>63</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>68</v>
+        <v>113</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1711,19 +1735,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>108</v>
+        <v>61</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>69</v>
+        <v>114</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>109</v>
+        <v>63</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>70</v>
+        <v>115</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1734,19 +1758,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1757,19 +1781,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1780,19 +1804,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1803,19 +1827,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1826,19 +1850,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1849,19 +1873,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1872,19 +1896,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1895,19 +1919,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1918,19 +1942,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1941,19 +1965,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -1964,19 +1988,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>90</v>
+        <v>52</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -1987,19 +2011,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2010,19 +2034,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2033,19 +2057,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2056,19 +2080,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2079,19 +2103,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2102,19 +2126,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2125,19 +2149,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2148,19 +2172,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2171,22 +2195,22 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
         <v>28</v>
@@ -2194,19 +2218,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>62</v>
+        <v>102</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2217,19 +2241,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>66</v>
+        <v>105</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2240,22 +2264,22 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>68</v>
+        <v>107</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
         <v>28</v>
@@ -2263,22 +2287,22 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>69</v>
+        <v>108</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>70</v>
+        <v>109</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
         <v>28</v>
@@ -2286,19 +2310,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B79" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B79" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="C79" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>72</v>
+        <v>111</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2309,19 +2333,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>73</v>
+        <v>112</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>74</v>
+        <v>113</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2332,19 +2356,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>75</v>
+        <v>114</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>76</v>
+        <v>115</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2355,19 +2379,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>77</v>
+        <v>119</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>78</v>
+        <v>121</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>21</v>
@@ -2378,19 +2402,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2401,22 +2425,22 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
         <v>28</v>
@@ -2424,19 +2448,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>21</v>
@@ -2447,22 +2471,22 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G86" s="2" t="s">
         <v>28</v>
@@ -2470,19 +2494,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2493,19 +2517,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2516,19 +2540,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2539,22 +2563,22 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G90" s="2" t="s">
         <v>28</v>
@@ -2562,22 +2586,22 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
         <v>28</v>
@@ -2585,22 +2609,22 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G92" s="2" t="s">
         <v>28</v>
@@ -2608,19 +2632,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>98</v>
+        <v>52</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>21</v>
@@ -2631,22 +2655,22 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
         <v>28</v>
@@ -2654,19 +2678,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2677,19 +2701,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2700,22 +2724,22 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
         <v>28</v>
@@ -2723,19 +2747,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>118</v>
+        <v>93</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2746,22 +2770,22 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>119</v>
+        <v>94</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G99" s="2" t="s">
         <v>28</v>
@@ -2769,19 +2793,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>121</v>
+        <v>96</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>122</v>
+        <v>97</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2792,22 +2816,22 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>123</v>
+        <v>98</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>124</v>
+        <v>99</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G101" s="2" t="s">
         <v>28</v>
@@ -2815,22 +2839,22 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G102" s="2" t="s">
         <v>28</v>
@@ -2838,19 +2862,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>127</v>
+        <v>102</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2861,19 +2885,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>129</v>
+        <v>104</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>130</v>
+        <v>105</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2884,22 +2908,22 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>132</v>
+        <v>107</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G105" s="2" t="s">
         <v>28</v>
@@ -2907,19 +2931,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -2930,24 +2954,208 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="B107" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G114" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B115" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C107" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E107" s="2" t="s">
+      <c r="C115" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E115" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F107" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G107" s="2" t="s">
+      <c r="F115" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G115" s="2" t="s">
         <v>28</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_006.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_006.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="145">
   <si>
     <t>Sezione</t>
   </si>
@@ -215,6 +215,12 @@
     <t>nome</t>
   </si>
   <si>
+    <t>Identificativo unico nazionale</t>
+  </si>
+  <si>
+    <t>idANPR</t>
+  </si>
+  <si>
     <t>Sesso</t>
   </si>
   <si>
@@ -266,13 +272,13 @@
     <t>localitaEsteraNascita</t>
   </si>
   <si>
-    <t>Nazionalita</t>
+    <t>Nazionalità</t>
   </si>
   <si>
     <t>idNazionalita</t>
   </si>
   <si>
-    <t>Nazionalita - Descrizione</t>
+    <t>Nazionalità - Descrizione</t>
   </si>
   <si>
     <t>nazionalita</t>
@@ -499,7 +505,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H115"/>
+  <dimension ref="A1:H118"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1189,7 +1195,7 @@
         <v>67</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>63</v>
@@ -1281,7 +1287,7 @@
         <v>75</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>63</v>
@@ -1370,7 +1376,7 @@
         <v>61</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>52</v>
+        <v>83</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>9</v>
@@ -1379,7 +1385,7 @@
         <v>63</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
@@ -1393,7 +1399,7 @@
         <v>61</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>9</v>
@@ -1603,7 +1609,7 @@
         <v>102</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>63</v>
@@ -1672,7 +1678,7 @@
         <v>108</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>63</v>
@@ -1758,19 +1764,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B55" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B55" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E55" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>64</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1781,19 +1787,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1804,19 +1810,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1827,19 +1833,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1850,19 +1856,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1873,19 +1879,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1896,19 +1902,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1919,19 +1925,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1942,19 +1948,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1965,19 +1971,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -1988,19 +1994,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2011,19 +2017,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B66" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E66" s="2" t="s">
         <v>84</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>85</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2034,19 +2040,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>86</v>
+        <v>52</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2057,19 +2063,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2080,19 +2086,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2103,19 +2109,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2126,19 +2132,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2149,19 +2155,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2172,19 +2178,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2195,19 +2201,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2218,19 +2224,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2241,19 +2247,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2264,19 +2270,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2287,19 +2293,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2310,19 +2316,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2333,19 +2339,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2356,19 +2362,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2382,19 +2388,19 @@
         <v>118</v>
       </c>
       <c r="B82" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D82" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C82" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>120</v>
-      </c>
       <c r="E82" s="2" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
         <v>28</v>
@@ -2405,16 +2411,16 @@
         <v>118</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>62</v>
+        <v>116</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>64</v>
+        <v>117</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2425,22 +2431,22 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>65</v>
+        <v>121</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>66</v>
+        <v>123</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G84" s="2" t="s">
         <v>28</v>
@@ -2448,22 +2454,22 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
         <v>28</v>
@@ -2471,22 +2477,22 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
         <v>28</v>
@@ -2494,19 +2500,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2517,22 +2523,22 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G88" s="2" t="s">
         <v>28</v>
@@ -2540,22 +2546,22 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G89" s="2" t="s">
         <v>28</v>
@@ -2563,22 +2569,22 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
         <v>28</v>
@@ -2586,19 +2592,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2609,22 +2615,22 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
         <v>28</v>
@@ -2632,19 +2638,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>21</v>
@@ -2655,19 +2661,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2678,22 +2684,22 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G95" s="2" t="s">
         <v>28</v>
@@ -2701,22 +2707,22 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>88</v>
+        <v>52</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G96" s="2" t="s">
         <v>28</v>
@@ -2724,19 +2730,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2747,19 +2753,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2770,22 +2776,22 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
         <v>28</v>
@@ -2793,19 +2799,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2816,22 +2822,22 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
         <v>28</v>
@@ -2839,19 +2845,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>21</v>
@@ -2862,19 +2868,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2885,22 +2891,22 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G104" s="2" t="s">
         <v>28</v>
@@ -2908,19 +2914,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B105" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D105" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C105" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>120</v>
-      </c>
       <c r="E105" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>21</v>
@@ -2931,19 +2937,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -2954,19 +2960,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -2977,22 +2983,22 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G108" s="2" t="s">
         <v>28</v>
@@ -3000,19 +3006,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3023,19 +3029,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3046,19 +3052,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3069,19 +3075,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3092,19 +3098,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3115,19 +3121,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3138,24 +3144,93 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B115" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G116" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G117" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B118" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C115" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E115" s="2" t="s">
+      <c r="C118" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E118" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F115" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G115" s="2" t="s">
+      <c r="F118" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G118" s="2" t="s">
         <v>28</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_006.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_006.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="147">
   <si>
     <t>Sezione</t>
   </si>
@@ -282,6 +282,12 @@
   </si>
   <si>
     <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Residenza non nota</t>
+  </si>
+  <si>
+    <t>flagIrreperibile</t>
   </si>
   <si>
     <t>Stato di residenza</t>
@@ -505,7 +511,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H118"/>
+  <dimension ref="A1:H121"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1632,7 +1638,7 @@
         <v>104</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>63</v>
@@ -1701,7 +1707,7 @@
         <v>110</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>63</v>
@@ -1787,19 +1793,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B56" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B56" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E56" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>64</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1810,19 +1816,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1833,19 +1839,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1856,19 +1862,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1879,19 +1885,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1902,19 +1908,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1925,19 +1931,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1948,19 +1954,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1971,19 +1977,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -1994,19 +2000,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2017,19 +2023,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2040,19 +2046,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>52</v>
+        <v>83</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2063,19 +2069,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>86</v>
+        <v>52</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2086,19 +2092,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2109,19 +2115,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2132,19 +2138,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2155,19 +2161,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2178,19 +2184,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2201,19 +2207,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2224,19 +2230,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2247,19 +2253,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2270,19 +2276,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2293,19 +2299,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2316,19 +2322,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2339,19 +2345,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2362,19 +2368,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2385,19 +2391,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2408,19 +2414,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2434,19 +2440,19 @@
         <v>120</v>
       </c>
       <c r="B84" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D84" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C84" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>122</v>
-      </c>
       <c r="E84" s="2" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
         <v>28</v>
@@ -2457,16 +2463,16 @@
         <v>120</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>62</v>
+        <v>118</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>64</v>
+        <v>119</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2477,22 +2483,22 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>65</v>
+        <v>123</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>66</v>
+        <v>125</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G86" s="2" t="s">
         <v>28</v>
@@ -2500,19 +2506,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2523,22 +2529,22 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
         <v>28</v>
@@ -2546,22 +2552,22 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
         <v>28</v>
@@ -2569,22 +2575,22 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G90" s="2" t="s">
         <v>28</v>
@@ -2592,22 +2598,22 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G91" s="2" t="s">
         <v>28</v>
@@ -2615,19 +2621,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2638,22 +2644,22 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
         <v>28</v>
@@ -2661,19 +2667,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2684,19 +2690,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>21</v>
@@ -2707,22 +2713,22 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
         <v>28</v>
@@ -2730,22 +2736,22 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G97" s="2" t="s">
         <v>28</v>
@@ -2753,22 +2759,22 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>88</v>
+        <v>52</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G98" s="2" t="s">
         <v>28</v>
@@ -2776,19 +2782,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2799,19 +2805,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2822,22 +2828,22 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G101" s="2" t="s">
         <v>28</v>
@@ -2845,22 +2851,22 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
         <v>28</v>
@@ -2868,22 +2874,22 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G103" s="2" t="s">
         <v>28</v>
@@ -2891,22 +2897,22 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
         <v>28</v>
@@ -2914,19 +2920,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>21</v>
@@ -2937,19 +2943,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -2960,22 +2966,22 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G107" s="2" t="s">
         <v>28</v>
@@ -2983,19 +2989,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B108" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D108" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C108" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>122</v>
-      </c>
       <c r="E108" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>21</v>
@@ -3006,19 +3012,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3029,19 +3035,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3052,22 +3058,22 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G111" s="2" t="s">
         <v>28</v>
@@ -3075,19 +3081,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3098,19 +3104,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3121,19 +3127,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3144,19 +3150,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3167,19 +3173,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3190,19 +3196,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3213,24 +3219,93 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B118" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G118" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G119" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G120" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B121" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C118" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D118" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E118" s="2" t="s">
+      <c r="C121" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E121" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F118" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G118" s="2" t="s">
+      <c r="F121" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G121" s="2" t="s">
         <v>28</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_006.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_006.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="875" uniqueCount="150">
   <si>
     <t>Sezione</t>
   </si>
@@ -74,6 +74,9 @@
     <t>Copia atto di matrimonio trascritto</t>
   </si>
   <si>
+    <t>Documenti utilizzati per la pubblicazione</t>
+  </si>
+  <si>
     <t>Formula</t>
   </si>
   <si>
@@ -282,6 +285,12 @@
   </si>
   <si>
     <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Comprensione</t>
+  </si>
+  <si>
+    <t>tipoImpedimento</t>
   </si>
   <si>
     <t>Residenza non nota</t>
@@ -511,7 +520,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H121"/>
+  <dimension ref="A1:H125"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -758,660 +767,660 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="C11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="B12" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="s">
+      <c r="C12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B13" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F13" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G12" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="s">
+      <c r="G13" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B24" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B25" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E25" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B26" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B27" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B29" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B30" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E30" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B31" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E31" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B32" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B33" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C33" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B34" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E34" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C34" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B35" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B36" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E36" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B37" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C37" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>82</v>
-      </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B38" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E38" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C38" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>52</v>
+        <v>84</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>85</v>
@@ -1420,1073 +1429,1073 @@
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B40" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E40" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C40" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B41" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C41" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>89</v>
-      </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B42" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C42" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B43" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C43" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>93</v>
-      </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B44" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C44" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B45" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C45" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>97</v>
-      </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B46" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C46" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>99</v>
-      </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B47" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C47" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>101</v>
-      </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B48" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C48" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>103</v>
-      </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B49" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C49" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B50" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E50" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C50" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>107</v>
-      </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B51" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E51" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C51" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>109</v>
-      </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B52" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E52" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C52" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>111</v>
-      </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B53" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E53" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C53" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>113</v>
-      </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B54" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E54" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C54" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>115</v>
-      </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B55" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E55" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C55" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>117</v>
-      </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B56" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E56" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C56" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>119</v>
-      </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E57" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B57" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>120</v>
+        <v>62</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>65</v>
+        <v>121</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>121</v>
+        <v>64</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>66</v>
+        <v>122</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>88</v>
+        <v>53</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
@@ -2495,818 +2504,910 @@
         <v>124</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>62</v>
+        <v>119</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>124</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>64</v>
+        <v>120</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>65</v>
+        <v>121</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>124</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>66</v>
+        <v>122</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>67</v>
+        <v>126</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>68</v>
+        <v>128</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C93" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F93" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D93" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E93" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F93" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G93" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C100" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F100" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D100" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E100" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="F100" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G100" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>90</v>
+        <v>53</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C109" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F109" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D109" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E109" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="F109" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G109" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D112" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B112" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C112" s="2" t="s">
+      <c r="E112" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F112" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D112" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E112" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="F112" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G112" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D113" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B113" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="E113" s="2" t="s">
-        <v>132</v>
+        <v>110</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D114" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B114" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C114" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="E114" s="2" t="s">
-        <v>134</v>
+        <v>112</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D115" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B115" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C115" s="2" t="s">
+      <c r="E115" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F115" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D115" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E115" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="F115" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G115" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>52</v>
+        <v>142</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E121" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G122" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G124" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B125" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F121" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G121" s="2" t="s">
-        <v>28</v>
+      <c r="C125" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G125" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_006.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_006.xlsx
@@ -1302,7 +1302,7 @@
         <v>74</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>64</v>
@@ -1325,7 +1325,7 @@
         <v>76</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>64</v>
@@ -1992,7 +1992,7 @@
         <v>74</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>124</v>
@@ -2015,7 +2015,7 @@
         <v>76</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>124</v>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_006.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_006.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="875" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="152">
   <si>
     <t>Sezione</t>
   </si>
@@ -381,6 +381,12 @@
   </si>
   <si>
     <t>nomeComuneAIRE</t>
+  </si>
+  <si>
+    <t>Residenza al momento dell'evento originario</t>
+  </si>
+  <si>
+    <t>residenzaOriginaria</t>
   </si>
   <si>
     <t>Generalità Sposa</t>
@@ -520,7 +526,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H125"/>
+  <dimension ref="A1:H127"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1871,19 +1877,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B59" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B59" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E59" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>65</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1894,19 +1900,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1917,19 +1923,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1940,19 +1946,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1963,19 +1969,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1986,19 +1992,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2009,19 +2015,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2032,19 +2038,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2055,19 +2061,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2078,19 +2084,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2101,19 +2107,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2124,19 +2130,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2147,19 +2153,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>87</v>
+        <v>53</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2170,19 +2176,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2193,19 +2199,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2216,19 +2222,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2239,19 +2245,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2262,19 +2268,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2285,19 +2291,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2308,19 +2314,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2331,19 +2337,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2354,19 +2360,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2377,19 +2383,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2400,19 +2406,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2423,19 +2429,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2446,19 +2452,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2469,19 +2475,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2492,19 +2498,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2515,19 +2521,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2538,19 +2544,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2564,19 +2570,19 @@
         <v>125</v>
       </c>
       <c r="B89" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D89" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C89" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>127</v>
-      </c>
       <c r="E89" s="2" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
         <v>29</v>
@@ -2587,16 +2593,16 @@
         <v>125</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>63</v>
+        <v>123</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>65</v>
+        <v>124</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2607,22 +2613,22 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>66</v>
+        <v>128</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>67</v>
+        <v>130</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G91" s="2" t="s">
         <v>29</v>
@@ -2630,19 +2636,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2653,22 +2659,22 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
         <v>29</v>
@@ -2676,22 +2682,22 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
         <v>29</v>
@@ -2699,22 +2705,22 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G95" s="2" t="s">
         <v>29</v>
@@ -2722,22 +2728,22 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G96" s="2" t="s">
         <v>29</v>
@@ -2745,19 +2751,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2768,22 +2774,22 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
         <v>29</v>
@@ -2791,19 +2797,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2814,19 +2820,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>22</v>
@@ -2837,22 +2843,22 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>53</v>
+        <v>82</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
         <v>29</v>
@@ -2860,22 +2866,22 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G102" s="2" t="s">
         <v>29</v>
@@ -2883,22 +2889,22 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>89</v>
+        <v>53</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G103" s="2" t="s">
         <v>29</v>
@@ -2906,22 +2912,22 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
         <v>29</v>
@@ -2929,22 +2935,22 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
         <v>29</v>
@@ -2952,22 +2958,22 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G106" s="2" t="s">
         <v>29</v>
@@ -2975,19 +2981,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>22</v>
@@ -2998,19 +3004,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3021,19 +3027,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>22</v>
@@ -3044,19 +3050,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3067,19 +3073,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>22</v>
@@ -3090,22 +3096,22 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
         <v>29</v>
@@ -3113,22 +3119,22 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G113" s="2" t="s">
         <v>29</v>
@@ -3136,22 +3142,22 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G114" s="2" t="s">
         <v>29</v>
@@ -3159,22 +3165,22 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B115" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D115" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C115" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>127</v>
-      </c>
       <c r="E115" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
         <v>29</v>
@@ -3182,19 +3188,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>133</v>
+        <v>112</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3205,22 +3211,22 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G117" s="2" t="s">
         <v>29</v>
@@ -3228,19 +3234,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3251,19 +3257,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3274,19 +3280,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3297,19 +3303,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3320,19 +3326,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3343,19 +3349,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3366,19 +3372,19 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3389,24 +3395,70 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B125" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G125" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="F126" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G126" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B127" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C125" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D125" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E125" s="2" t="s">
+      <c r="C127" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E127" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F125" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G125" s="2" t="s">
+      <c r="F127" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G127" s="2" t="s">
         <v>29</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_006.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_006.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="875" uniqueCount="150">
   <si>
     <t>Sezione</t>
   </si>
@@ -381,12 +381,6 @@
   </si>
   <si>
     <t>nomeComuneAIRE</t>
-  </si>
-  <si>
-    <t>Residenza al momento dell'evento originario</t>
-  </si>
-  <si>
-    <t>residenzaOriginaria</t>
   </si>
   <si>
     <t>Generalità Sposa</t>
@@ -526,7 +520,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H127"/>
+  <dimension ref="A1:H125"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1877,19 +1871,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>62</v>
+        <v>123</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>123</v>
+        <v>63</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>64</v>
+        <v>124</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>124</v>
+        <v>65</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1900,19 +1894,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1923,19 +1917,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1946,19 +1940,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1969,19 +1963,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1992,19 +1986,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2015,19 +2009,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2038,19 +2032,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2061,19 +2055,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2084,19 +2078,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2107,19 +2101,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2130,19 +2124,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2153,19 +2147,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>53</v>
+        <v>87</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2176,19 +2170,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2199,19 +2193,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2222,19 +2216,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2245,19 +2239,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2268,19 +2262,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2291,19 +2285,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2314,19 +2308,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2337,19 +2331,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2360,19 +2354,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2383,19 +2377,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2406,19 +2400,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2429,19 +2423,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2452,19 +2446,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2475,19 +2469,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2498,19 +2492,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2521,19 +2515,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2544,19 +2538,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2570,19 +2564,19 @@
         <v>125</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G89" s="2" t="s">
         <v>29</v>
@@ -2593,16 +2587,16 @@
         <v>125</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>123</v>
+        <v>63</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>124</v>
+        <v>65</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2613,22 +2607,22 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D91" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B91" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="E91" s="2" t="s">
-        <v>130</v>
+        <v>67</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
         <v>29</v>
@@ -2636,19 +2630,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D92" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B92" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="E92" s="2" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2659,22 +2653,22 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D93" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B93" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="E93" s="2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G93" s="2" t="s">
         <v>29</v>
@@ -2682,22 +2676,22 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D94" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B94" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="E94" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G94" s="2" t="s">
         <v>29</v>
@@ -2705,22 +2699,22 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D95" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B95" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="E95" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
         <v>29</v>
@@ -2728,22 +2722,22 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D96" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B96" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="E96" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
         <v>29</v>
@@ -2751,19 +2745,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D97" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B97" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="E97" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2774,22 +2768,22 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D98" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B98" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="E98" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G98" s="2" t="s">
         <v>29</v>
@@ -2797,19 +2791,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D99" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B99" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="E99" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2820,19 +2814,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D100" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B100" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="E100" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>22</v>
@@ -2843,22 +2837,22 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D101" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B101" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="E101" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G101" s="2" t="s">
         <v>29</v>
@@ -2866,22 +2860,22 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D102" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B102" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="E102" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
         <v>29</v>
@@ -2889,22 +2883,22 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D103" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B103" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="E103" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
         <v>29</v>
@@ -2912,22 +2906,22 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D104" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B104" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="E104" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G104" s="2" t="s">
         <v>29</v>
@@ -2935,22 +2929,22 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D105" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B105" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="E105" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G105" s="2" t="s">
         <v>29</v>
@@ -2958,22 +2952,22 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D106" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B106" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C106" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="E106" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
         <v>29</v>
@@ -2981,19 +2975,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D107" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B107" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="E107" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>22</v>
@@ -3004,19 +2998,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D108" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B108" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="E108" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3027,19 +3021,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D109" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B109" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="E109" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>22</v>
@@ -3050,19 +3044,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D110" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B110" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="E110" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3073,19 +3067,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D111" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B111" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="E111" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>22</v>
@@ -3096,22 +3090,22 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D112" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B112" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="E112" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G112" s="2" t="s">
         <v>29</v>
@@ -3119,22 +3113,22 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D113" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B113" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="E113" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
         <v>29</v>
@@ -3142,22 +3136,22 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D114" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B114" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C114" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="E114" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
         <v>29</v>
@@ -3165,22 +3159,22 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D115" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B115" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="E115" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G115" s="2" t="s">
         <v>29</v>
@@ -3188,19 +3182,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>111</v>
+        <v>131</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>112</v>
+        <v>133</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3211,22 +3205,22 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>114</v>
+        <v>135</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
         <v>29</v>
@@ -3234,19 +3228,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3257,19 +3251,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3280,19 +3274,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3303,19 +3297,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D121" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B121" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C121" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D121" s="2" t="s">
-        <v>134</v>
-      </c>
       <c r="E121" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3326,19 +3320,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D122" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B122" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C122" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D122" s="2" t="s">
-        <v>134</v>
-      </c>
       <c r="E122" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3349,19 +3343,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D123" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B123" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="C123" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D123" s="2" t="s">
-        <v>134</v>
-      </c>
       <c r="E123" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3372,19 +3366,19 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D124" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B124" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="C124" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D124" s="2" t="s">
-        <v>134</v>
-      </c>
       <c r="E124" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3395,70 +3389,24 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D125" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B125" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="C125" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D125" s="2" t="s">
-        <v>134</v>
-      </c>
       <c r="E125" s="2" t="s">
-        <v>149</v>
+        <v>54</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="B126" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="C126" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D126" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E126" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="F126" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G126" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="B127" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C127" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D127" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E127" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F127" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G127" s="2" t="s">
         <v>29</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_006.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_006.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="156">
   <si>
     <t>Sezione</t>
   </si>
@@ -228,6 +228,18 @@
   </si>
   <si>
     <t>sesso</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita</t>
+  </si>
+  <si>
+    <t>idFormatodata</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>formatodata</t>
   </si>
   <si>
     <t>Data nascita</t>
@@ -526,7 +538,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H127"/>
+  <dimension ref="A1:H133"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1285,7 +1297,7 @@
         <v>72</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>64</v>
@@ -1331,7 +1343,7 @@
         <v>76</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>64</v>
@@ -1443,7 +1455,7 @@
         <v>62</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>9</v>
@@ -1452,7 +1464,7 @@
         <v>64</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
@@ -1466,7 +1478,7 @@
         <v>62</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>9</v>
@@ -1475,7 +1487,7 @@
         <v>64</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
@@ -1489,7 +1501,7 @@
         <v>62</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>89</v>
+        <v>53</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>9</v>
@@ -1722,7 +1734,7 @@
         <v>109</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>64</v>
@@ -1745,7 +1757,7 @@
         <v>111</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>64</v>
@@ -1791,7 +1803,7 @@
         <v>115</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>64</v>
@@ -1814,7 +1826,7 @@
         <v>117</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>64</v>
@@ -1900,19 +1912,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B60" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B60" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E60" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>65</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1923,19 +1935,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>125</v>
+        <v>62</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>66</v>
+        <v>127</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>126</v>
+        <v>64</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>67</v>
+        <v>128</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1946,19 +1958,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1969,19 +1981,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1992,19 +2004,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2015,19 +2027,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2038,19 +2050,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2061,19 +2073,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2084,19 +2096,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2107,19 +2119,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2130,19 +2142,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2153,19 +2165,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>53</v>
+        <v>82</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2176,19 +2188,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2199,19 +2211,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2222,19 +2234,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2245,19 +2257,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>93</v>
+        <v>53</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2268,19 +2280,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2291,19 +2303,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2314,19 +2326,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2337,19 +2349,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2360,19 +2372,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2383,19 +2395,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2406,19 +2418,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2429,19 +2441,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2452,19 +2464,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2475,19 +2487,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2498,19 +2510,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2521,19 +2533,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2544,19 +2556,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2567,19 +2579,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2590,19 +2602,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2613,22 +2625,22 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
         <v>29</v>
@@ -2636,19 +2648,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>63</v>
+        <v>123</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>65</v>
+        <v>124</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2659,19 +2671,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>66</v>
+        <v>125</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>67</v>
+        <v>126</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2682,19 +2694,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B94" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B94" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>69</v>
+        <v>128</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2705,19 +2717,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>70</v>
+        <v>132</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>71</v>
+        <v>134</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>22</v>
@@ -2728,22 +2740,22 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
         <v>29</v>
@@ -2751,19 +2763,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2774,19 +2786,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2797,22 +2809,22 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G99" s="2" t="s">
         <v>29</v>
@@ -2820,22 +2832,22 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
         <v>29</v>
@@ -2843,22 +2855,22 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G101" s="2" t="s">
         <v>29</v>
@@ -2866,19 +2878,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>22</v>
@@ -2889,22 +2901,22 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
         <v>29</v>
@@ -2912,19 +2924,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2935,19 +2947,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -2958,19 +2970,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>22</v>
@@ -2981,22 +2993,22 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
         <v>29</v>
@@ -3004,22 +3016,22 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G108" s="2" t="s">
         <v>29</v>
@@ -3027,19 +3039,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>97</v>
+        <v>53</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>22</v>
@@ -3050,19 +3062,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3073,22 +3085,22 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
         <v>29</v>
@@ -3096,22 +3108,22 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G112" s="2" t="s">
         <v>29</v>
@@ -3119,19 +3131,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>22</v>
@@ -3142,22 +3154,22 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
         <v>29</v>
@@ -3165,22 +3177,22 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G115" s="2" t="s">
         <v>29</v>
@@ -3188,19 +3200,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3211,19 +3223,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>22</v>
@@ -3234,19 +3246,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B118" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D118" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C118" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D118" s="2" t="s">
-        <v>134</v>
-      </c>
       <c r="E118" s="2" t="s">
-        <v>135</v>
+        <v>108</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3257,22 +3269,22 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>136</v>
+        <v>109</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>137</v>
+        <v>110</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G119" s="2" t="s">
         <v>29</v>
@@ -3280,22 +3292,22 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>138</v>
+        <v>111</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>139</v>
+        <v>112</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G120" s="2" t="s">
         <v>29</v>
@@ -3303,19 +3315,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>140</v>
+        <v>113</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>141</v>
+        <v>114</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3326,19 +3338,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>142</v>
+        <v>115</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>143</v>
+        <v>116</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3349,22 +3361,22 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G123" s="2" t="s">
         <v>29</v>
@@ -3372,19 +3384,19 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3395,19 +3407,19 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3418,19 +3430,19 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3441,24 +3453,162 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B127" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F127" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G127" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G128" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F129" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G129" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="F130" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G130" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F131" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G131" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G132" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B133" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C127" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D127" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E127" s="2" t="s">
+      <c r="C133" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E133" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F127" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G127" s="2" t="s">
+      <c r="F133" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G133" s="2" t="s">
         <v>29</v>
       </c>
     </row>
